--- a/InputParameters.xlsx
+++ b/InputParameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\waquoit_mehg_master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\waquoit_nitrogen_mehg_model-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCB92B-043A-45C4-8128-C26DC62E5D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE8B41-C716-43D1-B000-41D86D44FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,7 +946,7 @@
   <dimension ref="A1:ALR40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="12">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>18</v>
